--- a/team_specific_matrix/Western N.M._B.xlsx
+++ b/team_specific_matrix/Western N.M._B.xlsx
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8333333333333334</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1666666666666667</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1111111111111111</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="R6">
-        <v>0.1111111111111111</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="S6">
         <v>0.3333333333333333</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="R7">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="S7">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.3</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="R8">
-        <v>0.1</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="S8">
-        <v>0.2</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1428571428571428</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4285714285714285</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="R9">
-        <v>0.1428571428571428</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="S9">
-        <v>0.2857142857142857</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.125</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.015625</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.203125</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.265625</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="R10">
-        <v>0.09375</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="S10">
-        <v>0.296875</v>
+        <v>0.3596491228070176</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1428571428571428</v>
+        <v>0.125</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K11">
-        <v>0.1428571428571428</v>
+        <v>0.1875</v>
       </c>
       <c r="L11">
-        <v>0.7142857142857143</v>
+        <v>0.5625</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.2</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1666666666666667</v>
+        <v>0.05</v>
       </c>
       <c r="J15">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K15">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2857142857142857</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="J16">
-        <v>0.4285714285714285</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="K16">
-        <v>0.1428571428571428</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1428571428571428</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,28 +1395,28 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.04545454545454546</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.04545454545454546</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="I17">
-        <v>0.1363636363636364</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="J17">
-        <v>0.3636363636363636</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.1363636363636364</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1818181818181818</v>
+        <v>0.1515151515151515</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="I18">
-        <v>0.2</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="J18">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K18">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1478,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.3</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,46 +1513,46 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.05405405405405406</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1891891891891892</v>
+        <v>0.1486486486486487</v>
       </c>
       <c r="I19">
-        <v>0.05405405405405406</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="J19">
-        <v>0.4864864864864865</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="K19">
-        <v>0.02702702702702703</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02702702702702703</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
+        <v>0.1216216216216216</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <v>0.1081081081081081</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0.05405405405405406</v>
       </c>
     </row>
   </sheetData>
